--- a/employee-data.xlsx
+++ b/employee-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patipol.p\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patipol.p\AppData\Local\Programs\Python\Python310\Scripts\e-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/employee-data.xlsx
+++ b/employee-data.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="760">
   <si>
     <t>รหัสพนักงาน</t>
   </si>
@@ -2302,6 +2302,15 @@
   </si>
   <si>
     <t>โต๊ะที่นั่ง</t>
+  </si>
+  <si>
+    <t>ชื่อ-นามสกุล</t>
+  </si>
+  <si>
+    <t>แผนก/ฝ่าย</t>
+  </si>
+  <si>
+    <t>Plat</t>
   </si>
 </sst>
 </file>
@@ -9889,13 +9898,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>757</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>758</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.8">
